--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.007057333333333333</v>
+        <v>0.3714673333333334</v>
       </c>
       <c r="H2">
-        <v>0.021172</v>
+        <v>1.114402</v>
       </c>
       <c r="I2">
-        <v>0.0001677811382698133</v>
+        <v>0.009196646933633472</v>
       </c>
       <c r="J2">
-        <v>0.0001677811382698134</v>
+        <v>0.009266034747069054</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N2">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O2">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P2">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q2">
-        <v>0.1312168057662222</v>
+        <v>5.330451479545334</v>
       </c>
       <c r="R2">
-        <v>1.180951251896</v>
+        <v>47.974063315908</v>
       </c>
       <c r="S2">
-        <v>2.283542763772578E-05</v>
+        <v>0.0009347617627258821</v>
       </c>
       <c r="T2">
-        <v>2.312299243776165E-05</v>
+        <v>0.0009581836654968046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.007057333333333333</v>
+        <v>0.3714673333333334</v>
       </c>
       <c r="H3">
-        <v>0.021172</v>
+        <v>1.114402</v>
       </c>
       <c r="I3">
-        <v>0.0001677811382698133</v>
+        <v>0.009196646933633472</v>
       </c>
       <c r="J3">
-        <v>0.0001677811382698134</v>
+        <v>0.009266034747069054</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P3">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q3">
-        <v>0.047612736888</v>
+        <v>2.506127395308</v>
       </c>
       <c r="R3">
-        <v>0.428514631992</v>
+        <v>22.555146557772</v>
       </c>
       <c r="S3">
-        <v>8.285960029975688E-06</v>
+        <v>0.0004394809840485682</v>
       </c>
       <c r="T3">
-        <v>8.390304493189893E-06</v>
+        <v>0.0004504928603239069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.007057333333333333</v>
+        <v>0.3714673333333334</v>
       </c>
       <c r="H4">
-        <v>0.021172</v>
+        <v>1.114402</v>
       </c>
       <c r="I4">
-        <v>0.0001677811382698133</v>
+        <v>0.009196646933633472</v>
       </c>
       <c r="J4">
-        <v>0.0001677811382698134</v>
+        <v>0.009266034747069054</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N4">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O4">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P4">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q4">
-        <v>0.3058895485053333</v>
+        <v>24.67899407243045</v>
       </c>
       <c r="R4">
-        <v>2.753005936548</v>
+        <v>222.110946651874</v>
       </c>
       <c r="S4">
-        <v>5.323341479958701E-05</v>
+        <v>0.004327772251556893</v>
       </c>
       <c r="T4">
-        <v>5.390377913543069E-05</v>
+        <v>0.00443621128376021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.007057333333333333</v>
+        <v>0.3714673333333334</v>
       </c>
       <c r="H5">
-        <v>0.021172</v>
+        <v>1.114402</v>
       </c>
       <c r="I5">
-        <v>0.0001677811382698133</v>
+        <v>0.009196646933633472</v>
       </c>
       <c r="J5">
-        <v>0.0001677811382698134</v>
+        <v>0.009266034747069054</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N5">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O5">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P5">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q5">
-        <v>0.03596966480066667</v>
+        <v>2.687775107041667</v>
       </c>
       <c r="R5">
-        <v>0.215817988804</v>
+        <v>16.12665064225</v>
       </c>
       <c r="S5">
-        <v>6.259736875261719E-06</v>
+        <v>0.0004713351967483466</v>
       </c>
       <c r="T5">
-        <v>4.225710176466537E-06</v>
+        <v>0.0003220968197508004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.007057333333333333</v>
+        <v>0.3714673333333334</v>
       </c>
       <c r="H6">
-        <v>0.021172</v>
+        <v>1.114402</v>
       </c>
       <c r="I6">
-        <v>0.0001677811382698133</v>
+        <v>0.009196646933633472</v>
       </c>
       <c r="J6">
-        <v>0.0001677811382698134</v>
+        <v>0.009266034747069054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N6">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O6">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P6">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q6">
-        <v>0.4434142764355555</v>
+        <v>17.24026079771778</v>
       </c>
       <c r="R6">
-        <v>3.99072848792</v>
+        <v>155.16234717946</v>
       </c>
       <c r="S6">
-        <v>7.716659892726316E-05</v>
+        <v>0.003023296738553783</v>
       </c>
       <c r="T6">
-        <v>7.813835202696459E-05</v>
+        <v>0.003099050117737329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.048904</v>
       </c>
       <c r="I7">
-        <v>0.0003875481194949439</v>
+        <v>0.0004035822096895118</v>
       </c>
       <c r="J7">
-        <v>0.000387548119494944</v>
+        <v>0.0004066271985070602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N7">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O7">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P7">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q7">
-        <v>0.3030902450968889</v>
+        <v>0.2339195363573334</v>
       </c>
       <c r="R7">
-        <v>2.727812205872</v>
+        <v>2.105275827216</v>
       </c>
       <c r="S7">
-        <v>5.274625699959104E-05</v>
+        <v>4.102073510667294E-05</v>
       </c>
       <c r="T7">
-        <v>5.341048659438391E-05</v>
+        <v>4.204857311585562E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.048904</v>
       </c>
       <c r="I8">
-        <v>0.0003875481194949439</v>
+        <v>0.0004035822096895118</v>
       </c>
       <c r="J8">
-        <v>0.000387548119494944</v>
+        <v>0.0004066271985070602</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P8">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q8">
         <v>0.109977956016</v>
@@ -948,10 +948,10 @@
         <v>0.989801604144</v>
       </c>
       <c r="S8">
-        <v>1.913926834054086E-05</v>
+        <v>1.928601890871622E-05</v>
       </c>
       <c r="T8">
-        <v>1.938028768821833E-05</v>
+        <v>1.976925996299391E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.048904</v>
       </c>
       <c r="I9">
-        <v>0.0003875481194949439</v>
+        <v>0.0004035822096895118</v>
       </c>
       <c r="J9">
-        <v>0.000387548119494944</v>
+        <v>0.0004066271985070602</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N9">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O9">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P9">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q9">
-        <v>0.7065568902373334</v>
+        <v>1.083003733049778</v>
       </c>
       <c r="R9">
-        <v>6.359012012136001</v>
+        <v>9.747033597448</v>
       </c>
       <c r="S9">
-        <v>0.0001229608406083036</v>
+        <v>0.0001899183366416592</v>
       </c>
       <c r="T9">
-        <v>0.0001245092771036795</v>
+        <v>0.0001946770345180728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.048904</v>
       </c>
       <c r="I10">
-        <v>0.0003875481194949439</v>
+        <v>0.0004035822096895118</v>
       </c>
       <c r="J10">
-        <v>0.000387548119494944</v>
+        <v>0.0004066271985070602</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N10">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O10">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P10">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q10">
-        <v>0.08308428525466668</v>
+        <v>0.1179493161666667</v>
       </c>
       <c r="R10">
-        <v>0.4985057115280001</v>
+        <v>0.7076958970000001</v>
       </c>
       <c r="S10">
-        <v>1.445901058699222E-05</v>
+        <v>2.068389724873174E-05</v>
       </c>
       <c r="T10">
-        <v>9.760727870296597E-06</v>
+        <v>1.413477620561803E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.048904</v>
       </c>
       <c r="I11">
-        <v>0.0003875481194949439</v>
+        <v>0.0004035822096895118</v>
       </c>
       <c r="J11">
-        <v>0.000387548119494944</v>
+        <v>0.0004066271985070602</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N11">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O11">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P11">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q11">
-        <v>1.024217446382222</v>
+        <v>0.7565651479911113</v>
       </c>
       <c r="R11">
-        <v>9.21795701744</v>
+        <v>6.809086331920001</v>
       </c>
       <c r="S11">
-        <v>0.0001782427429595163</v>
+        <v>0.0001326732217837317</v>
       </c>
       <c r="T11">
-        <v>0.0001804873402383656</v>
+        <v>0.0001359975547045198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.853033</v>
+        <v>9.282130666666667</v>
       </c>
       <c r="H12">
-        <v>104.559099</v>
+        <v>27.846392</v>
       </c>
       <c r="I12">
-        <v>0.8285964786834548</v>
+        <v>0.2298034601513239</v>
       </c>
       <c r="J12">
-        <v>0.8285964786834548</v>
+        <v>0.2315373050770778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N12">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O12">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P12">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q12">
-        <v>648.0214899194314</v>
+        <v>133.1959575058187</v>
       </c>
       <c r="R12">
-        <v>5832.193409274882</v>
+        <v>1198.763617552368</v>
       </c>
       <c r="S12">
-        <v>0.1127740288626632</v>
+        <v>0.0233575877210162</v>
       </c>
       <c r="T12">
-        <v>0.1141941836140267</v>
+        <v>0.02394284823377999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.853033</v>
+        <v>9.282130666666667</v>
       </c>
       <c r="H13">
-        <v>104.559099</v>
+        <v>27.846392</v>
       </c>
       <c r="I13">
-        <v>0.8285964786834548</v>
+        <v>0.2298034601513239</v>
       </c>
       <c r="J13">
-        <v>0.8285964786834548</v>
+        <v>0.2315373050770778</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>20.239686</v>
       </c>
       <c r="O13">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P13">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q13">
-        <v>235.138148022546</v>
+        <v>62.622470034768</v>
       </c>
       <c r="R13">
-        <v>2116.243332202914</v>
+        <v>563.602230312912</v>
       </c>
       <c r="S13">
-        <v>0.040920674243542</v>
+        <v>0.0109816383660135</v>
       </c>
       <c r="T13">
-        <v>0.04143598517587317</v>
+        <v>0.01125680031243731</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.853033</v>
+        <v>9.282130666666667</v>
       </c>
       <c r="H14">
-        <v>104.559099</v>
+        <v>27.846392</v>
       </c>
       <c r="I14">
-        <v>0.8285964786834548</v>
+        <v>0.2298034601513239</v>
       </c>
       <c r="J14">
-        <v>0.8285964786834548</v>
+        <v>0.2315373050770778</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N14">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O14">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P14">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q14">
-        <v>1510.652540394599</v>
+        <v>616.6723885156116</v>
       </c>
       <c r="R14">
-        <v>13595.87286355139</v>
+        <v>5550.051496640504</v>
       </c>
       <c r="S14">
-        <v>0.2628961783552845</v>
+        <v>0.1081412655429332</v>
       </c>
       <c r="T14">
-        <v>0.2662068098949382</v>
+        <v>0.11085091233003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.853033</v>
+        <v>9.282130666666667</v>
       </c>
       <c r="H15">
-        <v>104.559099</v>
+        <v>27.846392</v>
       </c>
       <c r="I15">
-        <v>0.8285964786834548</v>
+        <v>0.2298034601513239</v>
       </c>
       <c r="J15">
-        <v>0.8285964786834548</v>
+        <v>0.2315373050770778</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N15">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O15">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P15">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q15">
-        <v>177.6381892541906</v>
+        <v>67.16143657183333</v>
       </c>
       <c r="R15">
-        <v>1065.829135525143</v>
+        <v>402.968619431</v>
       </c>
       <c r="S15">
-        <v>0.03091405855159838</v>
+        <v>0.01177760328144743</v>
       </c>
       <c r="T15">
-        <v>0.02086890462339279</v>
+        <v>0.008048472907204158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.853033</v>
+        <v>9.282130666666667</v>
       </c>
       <c r="H16">
-        <v>104.559099</v>
+        <v>27.846392</v>
       </c>
       <c r="I16">
-        <v>0.8285964786834548</v>
+        <v>0.2298034601513239</v>
       </c>
       <c r="J16">
-        <v>0.8285964786834548</v>
+        <v>0.2315373050770778</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N16">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O16">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P16">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q16">
-        <v>2189.826054592794</v>
+        <v>430.7952250224623</v>
       </c>
       <c r="R16">
-        <v>19708.43449133514</v>
+        <v>3877.157025202161</v>
       </c>
       <c r="S16">
-        <v>0.3810915386703667</v>
+        <v>0.07554536523991355</v>
       </c>
       <c r="T16">
-        <v>0.3858905953752239</v>
+        <v>0.07743827129362636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.186341999999999</v>
+        <v>0.907406</v>
       </c>
       <c r="H17">
-        <v>21.559026</v>
+        <v>1.814812</v>
       </c>
       <c r="I17">
-        <v>0.1708481920587805</v>
+        <v>0.02246521257354334</v>
       </c>
       <c r="J17">
-        <v>0.1708481920587805</v>
+        <v>0.01508980695601577</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N17">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O17">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P17">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q17">
-        <v>133.6154603793186</v>
+        <v>13.021020211508</v>
       </c>
       <c r="R17">
-        <v>1202.539143413868</v>
+        <v>78.12612126904801</v>
       </c>
       <c r="S17">
-        <v>0.0232528612395073</v>
+        <v>0.002283399793076579</v>
       </c>
       <c r="T17">
-        <v>0.02354568274907929</v>
+        <v>0.00156040927272886</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.186341999999999</v>
+        <v>0.907406</v>
       </c>
       <c r="H18">
-        <v>21.559026</v>
+        <v>1.814812</v>
       </c>
       <c r="I18">
-        <v>0.1708481920587805</v>
+        <v>0.02246521257354334</v>
       </c>
       <c r="J18">
-        <v>0.1708481920587805</v>
+        <v>0.01508980695601577</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>20.239686</v>
       </c>
       <c r="O18">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P18">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q18">
-        <v>48.48310185620399</v>
+        <v>6.121870838172001</v>
       </c>
       <c r="R18">
-        <v>436.3479167058359</v>
+        <v>36.731225029032</v>
       </c>
       <c r="S18">
-        <v>0.008437428099433528</v>
+        <v>0.001073547109063628</v>
       </c>
       <c r="T18">
-        <v>0.008543679988503574</v>
+        <v>0.000733630995664177</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.186341999999999</v>
+        <v>0.907406</v>
       </c>
       <c r="H19">
-        <v>21.559026</v>
+        <v>1.814812</v>
       </c>
       <c r="I19">
-        <v>0.1708481920587805</v>
+        <v>0.02246521257354334</v>
       </c>
       <c r="J19">
-        <v>0.1708481920587805</v>
+        <v>0.01508980695601577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N19">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O19">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P19">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q19">
-        <v>311.481236036026</v>
+        <v>60.28488991034067</v>
       </c>
       <c r="R19">
-        <v>2803.331124324233</v>
+        <v>361.7093394620441</v>
       </c>
       <c r="S19">
-        <v>0.0542065262484924</v>
+        <v>0.01057171426746246</v>
       </c>
       <c r="T19">
-        <v>0.05488914490265481</v>
+        <v>0.00722440328741642</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.186341999999999</v>
+        <v>0.907406</v>
       </c>
       <c r="H20">
-        <v>21.559026</v>
+        <v>1.814812</v>
       </c>
       <c r="I20">
-        <v>0.1708481920587805</v>
+        <v>0.02246521257354334</v>
       </c>
       <c r="J20">
-        <v>0.1708481920587805</v>
+        <v>0.01508980695601577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N20">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O20">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P20">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q20">
-        <v>36.627193399247</v>
+        <v>6.565592825875001</v>
       </c>
       <c r="R20">
-        <v>219.763160395482</v>
+        <v>26.2623713035</v>
       </c>
       <c r="S20">
-        <v>0.006374165409357933</v>
+        <v>0.001151359344852118</v>
       </c>
       <c r="T20">
-        <v>0.004302956525737135</v>
+        <v>0.0005245370823505248</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.907406</v>
+      </c>
+      <c r="H21">
+        <v>1.814812</v>
+      </c>
+      <c r="I21">
+        <v>0.02246521257354334</v>
+      </c>
+      <c r="J21">
+        <v>0.01508980695601577</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>46.41124333333334</v>
+      </c>
+      <c r="N21">
+        <v>139.23373</v>
+      </c>
+      <c r="O21">
+        <v>0.328739024165117</v>
+      </c>
+      <c r="P21">
+        <v>0.3344526760724259</v>
+      </c>
+      <c r="Q21">
+        <v>42.11384066812667</v>
+      </c>
+      <c r="R21">
+        <v>252.68304400876</v>
+      </c>
+      <c r="S21">
+        <v>0.007385192059088552</v>
+      </c>
+      <c r="T21">
+        <v>0.00504682631785578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>29.8143</v>
+      </c>
+      <c r="H22">
+        <v>89.44289999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.7381310981318099</v>
+      </c>
+      <c r="J22">
+        <v>0.7437002260213302</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.349718</v>
+      </c>
+      <c r="N22">
+        <v>43.049154</v>
+      </c>
+      <c r="O22">
+        <v>0.1016415840981481</v>
+      </c>
+      <c r="P22">
+        <v>0.1034081666702025</v>
+      </c>
+      <c r="Q22">
+        <v>427.8267973674</v>
+      </c>
+      <c r="R22">
+        <v>3850.4411763066</v>
+      </c>
+      <c r="S22">
+        <v>0.07502481408622273</v>
+      </c>
+      <c r="T22">
+        <v>0.076904676925081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>29.8143</v>
+      </c>
+      <c r="H23">
+        <v>89.44289999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.7381310981318099</v>
+      </c>
+      <c r="J23">
+        <v>0.7437002260213302</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.746562</v>
+      </c>
+      <c r="N23">
+        <v>20.239686</v>
+      </c>
+      <c r="O23">
+        <v>0.04778708884009916</v>
+      </c>
+      <c r="P23">
+        <v>0.04861765281706964</v>
+      </c>
+      <c r="Q23">
+        <v>201.1440234366</v>
+      </c>
+      <c r="R23">
+        <v>1810.2962109294</v>
+      </c>
+      <c r="S23">
+        <v>0.03527313636206475</v>
+      </c>
+      <c r="T23">
+        <v>0.03615695938868125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>29.8143</v>
+      </c>
+      <c r="H24">
+        <v>89.44289999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.7381310981318099</v>
+      </c>
+      <c r="J24">
+        <v>0.7437002260213302</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>66.43651233333334</v>
+      </c>
+      <c r="N24">
+        <v>199.309537</v>
+      </c>
+      <c r="O24">
+        <v>0.4705815372480596</v>
+      </c>
+      <c r="P24">
+        <v>0.4787604843769264</v>
+      </c>
+      <c r="Q24">
+        <v>1980.7581096597</v>
+      </c>
+      <c r="R24">
+        <v>17826.8229869373</v>
+      </c>
+      <c r="S24">
+        <v>0.3473508668494654</v>
+      </c>
+      <c r="T24">
+        <v>0.3560542804412017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.186341999999999</v>
-      </c>
-      <c r="H21">
-        <v>21.559026</v>
-      </c>
-      <c r="I21">
-        <v>0.1708481920587805</v>
-      </c>
-      <c r="J21">
-        <v>0.1708481920587805</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>62.83028666666667</v>
-      </c>
-      <c r="N21">
-        <v>188.49086</v>
-      </c>
-      <c r="O21">
-        <v>0.4599241590742428</v>
-      </c>
-      <c r="P21">
-        <v>0.4657159489602949</v>
-      </c>
-      <c r="Q21">
-        <v>451.5199279447066</v>
-      </c>
-      <c r="R21">
-        <v>4063.679351502359</v>
-      </c>
-      <c r="S21">
-        <v>0.07857721106198935</v>
-      </c>
-      <c r="T21">
-        <v>0.07956672789280568</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>29.8143</v>
+      </c>
+      <c r="H25">
+        <v>89.44289999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.7381310981318099</v>
+      </c>
+      <c r="J25">
+        <v>0.7437002260213302</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.2355625</v>
+      </c>
+      <c r="N25">
+        <v>14.471125</v>
+      </c>
+      <c r="O25">
+        <v>0.05125076564857627</v>
+      </c>
+      <c r="P25">
+        <v>0.03476102006337534</v>
+      </c>
+      <c r="Q25">
+        <v>215.72323104375</v>
+      </c>
+      <c r="R25">
+        <v>1294.3393862625</v>
+      </c>
+      <c r="S25">
+        <v>0.03782978392827964</v>
+      </c>
+      <c r="T25">
+        <v>0.02585177847786423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>29.8143</v>
+      </c>
+      <c r="H26">
+        <v>89.44289999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.7381310981318099</v>
+      </c>
+      <c r="J26">
+        <v>0.7437002260213302</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.41124333333334</v>
+      </c>
+      <c r="N26">
+        <v>139.23373</v>
+      </c>
+      <c r="O26">
+        <v>0.328739024165117</v>
+      </c>
+      <c r="P26">
+        <v>0.3344526760724259</v>
+      </c>
+      <c r="Q26">
+        <v>1383.718732113</v>
+      </c>
+      <c r="R26">
+        <v>12453.468589017</v>
+      </c>
+      <c r="S26">
+        <v>0.2426524969057774</v>
+      </c>
+      <c r="T26">
+        <v>0.2487325307885019</v>
       </c>
     </row>
   </sheetData>
